--- a/Empirehomecrm/src/main/java/com/testdata/productadd.xlsx
+++ b/Empirehomecrm/src/main/java/com/testdata/productadd.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>HYT-091</t>
   </si>
@@ -44,6 +44,27 @@
   </si>
   <si>
     <t>halloweenmask</t>
+  </si>
+  <si>
+    <t>height</t>
+  </si>
+  <si>
+    <t>width</t>
+  </si>
+  <si>
+    <t>breadth</t>
+  </si>
+  <si>
+    <t>colorname</t>
+  </si>
+  <si>
+    <t>actualprice</t>
+  </si>
+  <si>
+    <t>orange</t>
+  </si>
+  <si>
+    <t>Qty</t>
   </si>
 </sst>
 </file>
@@ -382,10 +403,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -393,9 +414,13 @@
     <col min="1" max="1" width="14.85546875" customWidth="1"/>
     <col min="2" max="2" width="10.85546875" customWidth="1"/>
     <col min="3" max="3" width="16.140625" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -405,8 +430,26 @@
       <c r="C1" t="s">
         <v>5</v>
       </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -415,6 +458,24 @@
       </c>
       <c r="C2" t="s">
         <v>8</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2">
+        <v>230</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
